--- a/prjct/Diagrama de relaciones/sistema_FEP.xlsx
+++ b/prjct/Diagrama de relaciones/sistema_FEP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\paratin\prjct\Diagrama de relaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF86401-93DE-451A-B565-224802C47DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E37A0E0-9BAF-4DD3-BCB7-3440F6B80EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B60DFF02-7DCB-427F-9FCF-9A29C5652D09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B60DFF02-7DCB-427F-9FCF-9A29C5652D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablas (Diego)" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Departamentos!$B$4:$J$4</definedName>
-    <definedName name="datos">Departamentos!$B$5:$J$187</definedName>
+    <definedName name="datos">Departamentos!$B$5:$J$186</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="359">
   <si>
     <t xml:space="preserve">Individuos </t>
   </si>
@@ -447,6 +447,12 @@
     <t>nombre</t>
   </si>
   <si>
+    <t>fecha_nac</t>
+  </si>
+  <si>
+    <t>direccion</t>
+  </si>
+  <si>
     <t>departamento_id</t>
   </si>
   <si>
@@ -1059,9 +1065,6 @@
     <t>clube_id</t>
   </si>
   <si>
-    <t>Direccion</t>
-  </si>
-  <si>
     <t>estado_id</t>
   </si>
   <si>
@@ -1099,6 +1102,12 @@
   </si>
   <si>
     <t>Atlético Echagüe  Club</t>
+  </si>
+  <si>
+    <t>acronimo</t>
+  </si>
+  <si>
+    <t>Valores Concatenados</t>
   </si>
 </sst>
 </file>
@@ -1784,10 +1793,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="123">
     <cellStyle name="Accent" xfId="26" xr:uid="{18EA4006-CFB1-4CB9-B7E2-D55EF4D18A25}"/>
@@ -2203,12 +2212,12 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>825500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>116417</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:colOff>21167</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>108374</xdr:rowOff>
     </xdr:to>
@@ -2225,8 +2234,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3556000" y="1862667"/>
-          <a:ext cx="2508250" cy="193040"/>
+          <a:off x="3556000" y="1037167"/>
+          <a:ext cx="2497667" cy="1018540"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2308,14 +2317,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1100667</xdr:colOff>
+      <xdr:colOff>1121834</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>148167</xdr:rowOff>
+      <xdr:rowOff>52917</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>52917</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>74083</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2330,9 +2339,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5429250" y="1291167"/>
-          <a:ext cx="656167" cy="730249"/>
+        <a:xfrm flipV="1">
+          <a:off x="5450417" y="1195917"/>
+          <a:ext cx="613833" cy="624416"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2361,15 +2370,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>751417</xdr:colOff>
+      <xdr:colOff>931333</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>105834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>10584</xdr:colOff>
+      <xdr:colOff>21167</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>116417</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2383,9 +2392,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3481917" y="2434167"/>
-          <a:ext cx="857250" cy="201083"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3661833" y="2434167"/>
+          <a:ext cx="687917" cy="179916"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2414,15 +2423,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
+      <xdr:colOff>973667</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>10584</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2436,9 +2445,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3587750" y="3227917"/>
-          <a:ext cx="751417" cy="349250"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3704167" y="3206750"/>
+          <a:ext cx="635000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2467,15 +2476,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1058333</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>148167</xdr:rowOff>
+      <xdr:colOff>1068917</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>21167</xdr:colOff>
+      <xdr:colOff>10584</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2489,9 +2498,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3788833" y="1291167"/>
-          <a:ext cx="560917" cy="550333"/>
+        <a:xfrm flipH="1">
+          <a:off x="3799417" y="1841500"/>
+          <a:ext cx="539750" cy="10583"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2520,15 +2529,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1206500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>116416</xdr:rowOff>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>21167</xdr:colOff>
+      <xdr:colOff>10583</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2542,9 +2551,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1968500" y="3217333"/>
-          <a:ext cx="783167" cy="201084"/>
+        <a:xfrm flipH="1">
+          <a:off x="2000250" y="3376083"/>
+          <a:ext cx="740833" cy="21167"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2873,7 +2882,7 @@
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3057,7 +3066,7 @@
         <v>40</v>
       </c>
       <c r="N10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P10" s="8"/>
       <c r="Q10" s="16">
@@ -3687,46 +3696,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D913DDA0-EE0B-458E-A5CE-099555E90437}">
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="3" customWidth="1"/>
     <col min="10" max="10" width="2.5703125" style="25" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" customWidth="1"/>
+    <col min="11" max="11" width="3.28515625" customWidth="1"/>
     <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" customWidth="1"/>
     <col min="15" max="15" width="8.140625" customWidth="1"/>
+    <col min="19" max="19" width="7" customWidth="1"/>
+    <col min="20" max="20" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27" thickBot="1">
+    <row r="1" spans="1:21" ht="27" thickBot="1">
       <c r="A1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A2" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A3" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A3" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -3737,15 +3749,15 @@
         <v>1</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M3" s="20"/>
       <c r="O3" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A4" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -3755,6 +3767,9 @@
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="L4" s="4" t="s">
         <v>23</v>
       </c>
@@ -3765,12 +3780,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1">
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>349</v>
+      <c r="H5" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>24</v>
@@ -3782,12 +3797,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" thickBot="1">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1">
       <c r="D6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>339</v>
+        <v>138</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>33</v>
@@ -3796,29 +3811,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" thickBot="1">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1">
       <c r="B7" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" thickBot="1">
+      <c r="B8" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L8" s="19" t="s">
         <v>354</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" thickBot="1">
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>353</v>
       </c>
       <c r="M8" s="20"/>
       <c r="O8" s="19" t="s">
@@ -3831,15 +3846,15 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1">
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>339</v>
+        <v>140</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>341</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>16</v>
@@ -3859,13 +3874,19 @@
         <f>MAX(S10:S53)</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="U9" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="B10" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>138</v>
+        <v>342</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>27</v>
@@ -3877,20 +3898,21 @@
         <v>40</v>
       </c>
       <c r="P10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="R10" s="8"/>
       <c r="S10" s="16">
         <f t="shared" ref="S10:S16" si="0">LEN(P10)</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="U10" t="str">
+        <f>O10&amp;"#"&amp;P10</f>
+        <v>AEC#Atlético Echagüe  Club</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="D11" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>29</v>
@@ -3909,13 +3931,17 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="U11" t="str">
+        <f t="shared" ref="U11:U53" si="1">O11&amp;"#"&amp;P11</f>
+        <v>ANC#Atlético Neuquen Club (Paraná)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="D12" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>31</v>
@@ -3934,13 +3960,17 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="U12" t="str">
+        <f t="shared" si="1"/>
+        <v>CND#Circulo Nautico Diamante</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="D13" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>339</v>
+        <v>346</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>341</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>35</v>
@@ -3959,10 +3989,14 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" thickBot="1">
+      <c r="U13" t="str">
+        <f t="shared" si="1"/>
+        <v>CABS#Club Atlético Barrio Sud</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" thickBot="1">
       <c r="D14" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>16</v>
@@ -3984,13 +4018,14 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="B15" s="1" t="s">
-        <v>353</v>
-      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="1"/>
+        <v>CAFC#Club Atlético Ferrocarril Concordia</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="D15" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>20</v>
@@ -4006,13 +4041,17 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="B16" s="31" t="s">
-        <v>339</v>
+      <c r="U15" t="str">
+        <f t="shared" si="1"/>
+        <v>CAIG#Club Atlético Independiente-Gchu</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="B16" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>46</v>
@@ -4025,16 +4064,20 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="2:19">
-      <c r="B17" s="2" t="s">
-        <v>16</v>
+      <c r="U16" t="str">
+        <f t="shared" si="1"/>
+        <v>CAL#Club Atlético Litoral (Ma. Grande)</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21">
+      <c r="B17" s="30" t="s">
+        <v>341</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>47</v>
@@ -4047,13 +4090,17 @@
         <f>LEN(P17)</f>
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="2:19">
+      <c r="U17" t="str">
+        <f t="shared" si="1"/>
+        <v>CALa#Club Atlético Lanus (Conc. del Uruguay)</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21">
       <c r="B18" s="2" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>48</v>
@@ -4063,11 +4110,18 @@
       </c>
       <c r="R18" s="8"/>
       <c r="S18" s="4">
-        <f t="shared" ref="S18:S53" si="1">LEN(P18)</f>
+        <f t="shared" ref="S18:S53" si="2">LEN(P18)</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="2:19">
+      <c r="U18" t="str">
+        <f t="shared" si="1"/>
+        <v>CAM#Club Atlético Maciá (Maciá)</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21">
+      <c r="B19" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="F19" s="2" t="s">
         <v>130</v>
       </c>
@@ -4079,11 +4133,15 @@
       </c>
       <c r="R19" s="8"/>
       <c r="S19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="2:19">
+      <c r="U19" t="str">
+        <f t="shared" si="1"/>
+        <v>CAOV#Club Atlético Oro Verde</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21">
       <c r="O20" s="7" t="s">
         <v>50</v>
       </c>
@@ -4092,11 +4150,15 @@
       </c>
       <c r="R20" s="8"/>
       <c r="S20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="2:19">
+      <c r="U20" t="str">
+        <f t="shared" si="1"/>
+        <v>CAP#Club Atlético Patronato (Paraná)</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21">
       <c r="O21" s="7" t="s">
         <v>51</v>
       </c>
@@ -4105,11 +4167,15 @@
       </c>
       <c r="R21" s="8"/>
       <c r="S21" s="4">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="1"/>
+        <v>CAPa#Club Atlético Paracao (Paraná)</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21">
       <c r="O22" s="7" t="s">
         <v>52</v>
       </c>
@@ -4118,11 +4184,15 @@
       </c>
       <c r="R22" s="8"/>
       <c r="S22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="2:19">
+      <c r="U22" t="str">
+        <f t="shared" si="1"/>
+        <v>CAR#Club Atletico Rivadavia (C. del Uruguay)</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21">
       <c r="O23" s="7" t="s">
         <v>53</v>
       </c>
@@ -4131,11 +4201,15 @@
       </c>
       <c r="R23" s="8"/>
       <c r="S23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="2:19">
+      <c r="U23" t="str">
+        <f t="shared" si="1"/>
+        <v>CAS#Club Atlético Sarmiento (Crespo)</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21">
       <c r="O24" s="7" t="s">
         <v>54</v>
       </c>
@@ -4144,11 +4218,15 @@
       </c>
       <c r="R24" s="8"/>
       <c r="S24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="2:19">
+      <c r="U24" t="str">
+        <f t="shared" si="1"/>
+        <v>CASB#Club Atlético San Benito</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21">
       <c r="O25" s="7" t="s">
         <v>55</v>
       </c>
@@ -4157,11 +4235,15 @@
       </c>
       <c r="R25" s="8"/>
       <c r="S25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="2:19">
+      <c r="U25" t="str">
+        <f t="shared" si="1"/>
+        <v>CASR#Club Atlético Santa Rosa (Chajari)</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21">
       <c r="O26" s="7" t="s">
         <v>56</v>
       </c>
@@ -4170,11 +4252,15 @@
       </c>
       <c r="R26" s="8"/>
       <c r="S26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="2:19">
+      <c r="U26" t="str">
+        <f t="shared" si="1"/>
+        <v>CASV#Club Atlético Sarmiento (Victoria)</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21">
       <c r="O27" s="7" t="s">
         <v>57</v>
       </c>
@@ -4183,11 +4269,15 @@
       </c>
       <c r="R27" s="8"/>
       <c r="S27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="2:19">
+      <c r="U27" t="str">
+        <f t="shared" si="1"/>
+        <v>CASC#Club Atlético Sauce (Colón)</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21">
       <c r="O28" s="7" t="s">
         <v>58</v>
       </c>
@@ -4196,11 +4286,15 @@
       </c>
       <c r="R28" s="8"/>
       <c r="S28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="2:19">
+      <c r="U28" t="str">
+        <f t="shared" si="1"/>
+        <v>CASM#Club Atlético Libertador San Martín (Paraná)</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21">
       <c r="O29" s="7" t="s">
         <v>59</v>
       </c>
@@ -4209,11 +4303,15 @@
       </c>
       <c r="R29" s="8"/>
       <c r="S29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="2:19">
+      <c r="U29" t="str">
+        <f t="shared" si="1"/>
+        <v>CAUC#Club Atlético Unión de Crespo</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21">
       <c r="O30" s="7" t="s">
         <v>60</v>
       </c>
@@ -4222,11 +4320,15 @@
       </c>
       <c r="R30" s="8"/>
       <c r="S30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="2:19">
+      <c r="U30" t="str">
+        <f t="shared" si="1"/>
+        <v>CAT #Club Atlético Talleres (Paraná)</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21">
       <c r="O31" s="7" t="s">
         <v>61</v>
       </c>
@@ -4235,11 +4337,15 @@
       </c>
       <c r="R31" s="8"/>
       <c r="S31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="2:19">
+      <c r="U31" t="str">
+        <f t="shared" si="1"/>
+        <v>CDCA#Club Deportivo y Cultural Aranguren</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21">
       <c r="O32" s="7" t="s">
         <v>83</v>
       </c>
@@ -4248,11 +4354,15 @@
       </c>
       <c r="R32" s="8"/>
       <c r="S32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="15:19">
+      <c r="U32" t="str">
+        <f t="shared" si="1"/>
+        <v>CDCH#Club Deportivo y Cultural Hernandez</v>
+      </c>
+    </row>
+    <row r="33" spans="15:21">
       <c r="O33" s="7" t="s">
         <v>84</v>
       </c>
@@ -4261,11 +4371,15 @@
       </c>
       <c r="R33" s="8"/>
       <c r="S33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="15:19">
+      <c r="U33" t="str">
+        <f t="shared" si="1"/>
+        <v>CD25#Club Deportivo 25 de Mayo (Victoria)</v>
+      </c>
+    </row>
+    <row r="34" spans="15:21">
       <c r="O34" s="7" t="s">
         <v>85</v>
       </c>
@@ -4274,11 +4388,15 @@
       </c>
       <c r="R34" s="8"/>
       <c r="S34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="15:19">
+      <c r="U34" t="str">
+        <f t="shared" si="1"/>
+        <v>CFED#Club Ferrocarril del Este (Diamante)</v>
+      </c>
+    </row>
+    <row r="35" spans="15:21">
       <c r="O35" s="7" t="s">
         <v>86</v>
       </c>
@@ -4287,11 +4405,15 @@
       </c>
       <c r="R35" s="8"/>
       <c r="S35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="36" spans="15:19">
+      <c r="U35" t="str">
+        <f t="shared" si="1"/>
+        <v>CPAZ#Club Presbítero Andrés Zaninetti (C. del Uruguay)</v>
+      </c>
+    </row>
+    <row r="36" spans="15:21">
       <c r="O36" s="7" t="s">
         <v>87</v>
       </c>
@@ -4300,11 +4422,15 @@
       </c>
       <c r="R36" s="8"/>
       <c r="S36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="15:19">
+      <c r="U36" t="str">
+        <f t="shared" si="1"/>
+        <v>CSDF#Club Social Deportivo Federación</v>
+      </c>
+    </row>
+    <row r="37" spans="15:21">
       <c r="O37" s="7" t="s">
         <v>88</v>
       </c>
@@ -4313,11 +4439,15 @@
       </c>
       <c r="R37" s="8"/>
       <c r="S37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="15:19">
+      <c r="U37" t="str">
+        <f t="shared" si="1"/>
+        <v>CSJC#Club Social y Deportivo Juventud (Caseros)</v>
+      </c>
+    </row>
+    <row r="38" spans="15:21">
       <c r="O38" s="7" t="s">
         <v>89</v>
       </c>
@@ -4326,11 +4456,15 @@
       </c>
       <c r="R38" s="8"/>
       <c r="S38" s="4">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="15:19">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="U38" t="str">
+        <f t="shared" si="1"/>
+        <v>CSU#Club Sportivo Urquiza (Paraná)</v>
+      </c>
+    </row>
+    <row r="39" spans="15:21">
       <c r="O39" s="7" t="s">
         <v>90</v>
       </c>
@@ -4339,11 +4473,15 @@
       </c>
       <c r="R39" s="8"/>
       <c r="S39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="40" spans="15:19">
+      <c r="U39" t="str">
+        <f t="shared" si="1"/>
+        <v>CUAC#Club Unión Agrario Cerrito</v>
+      </c>
+    </row>
+    <row r="40" spans="15:21">
       <c r="O40" s="7" t="s">
         <v>91</v>
       </c>
@@ -4352,11 +4490,15 @@
       </c>
       <c r="R40" s="8"/>
       <c r="S40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="15:19">
+      <c r="U40" t="str">
+        <f t="shared" si="1"/>
+        <v>CULP#Club Atletico Unión (La Paz)</v>
+      </c>
+    </row>
+    <row r="41" spans="15:21">
       <c r="O41" s="7" t="s">
         <v>92</v>
       </c>
@@ -4365,11 +4507,15 @@
       </c>
       <c r="R41" s="8"/>
       <c r="S41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="42" spans="15:19">
+      <c r="U41" t="str">
+        <f t="shared" si="1"/>
+        <v>EMGR#Esc. Municipal Gral. Ramírez</v>
+      </c>
+    </row>
+    <row r="42" spans="15:21">
       <c r="O42" s="7" t="s">
         <v>93</v>
       </c>
@@ -4378,11 +4524,15 @@
       </c>
       <c r="R42" s="8"/>
       <c r="S42" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="43" spans="15:19">
+      <c r="U42" t="str">
+        <f t="shared" si="1"/>
+        <v>EMGM#Esc. Municipal Gdor. Mansilla</v>
+      </c>
+    </row>
+    <row r="43" spans="15:21">
       <c r="O43" s="7" t="s">
         <v>94</v>
       </c>
@@ -4391,11 +4541,15 @@
       </c>
       <c r="R43" s="8"/>
       <c r="S43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="44" spans="15:19">
+      <c r="U43" t="str">
+        <f t="shared" si="1"/>
+        <v>EMRT#Esc. Municipal Rosario del Tala</v>
+      </c>
+    </row>
+    <row r="44" spans="15:21">
       <c r="O44" s="7" t="s">
         <v>95</v>
       </c>
@@ -4404,11 +4558,15 @@
       </c>
       <c r="R44" s="8"/>
       <c r="S44" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="45" spans="15:19">
+      <c r="U44" t="str">
+        <f t="shared" si="1"/>
+        <v>EMSA#Esc. Municipal Santa Anita</v>
+      </c>
+    </row>
+    <row r="45" spans="15:21">
       <c r="O45" s="7" t="s">
         <v>96</v>
       </c>
@@ -4417,11 +4575,15 @@
       </c>
       <c r="R45" s="8"/>
       <c r="S45" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="46" spans="15:19">
+      <c r="U45" t="str">
+        <f t="shared" si="1"/>
+        <v>FFBC#Ferrocarril Foot Ball Club (Nogoyá)</v>
+      </c>
+    </row>
+    <row r="46" spans="15:21">
       <c r="O46" s="7" t="s">
         <v>97</v>
       </c>
@@ -4430,11 +4592,15 @@
       </c>
       <c r="R46" s="8"/>
       <c r="S46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="47" spans="15:19">
+      <c r="U46" t="str">
+        <f t="shared" si="1"/>
+        <v>FSOL#Fundación De. Sol (Paraná)</v>
+      </c>
+    </row>
+    <row r="47" spans="15:21">
       <c r="O47" s="7" t="s">
         <v>98</v>
       </c>
@@ -4443,11 +4609,15 @@
       </c>
       <c r="R47" s="8"/>
       <c r="S47" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="48" spans="15:19">
+      <c r="U47" t="str">
+        <f t="shared" si="1"/>
+        <v>IFBC#Independiente Foot Ball Club (Hernandarias)</v>
+      </c>
+    </row>
+    <row r="48" spans="15:21">
       <c r="O48" s="7" t="s">
         <v>99</v>
       </c>
@@ -4456,11 +4626,15 @@
       </c>
       <c r="R48" s="8"/>
       <c r="S48" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="49" spans="15:19">
+      <c r="U48" t="str">
+        <f t="shared" si="1"/>
+        <v>JFBC#Juventud Foot Ball Club (Feliciano)</v>
+      </c>
+    </row>
+    <row r="49" spans="15:21">
       <c r="O49" s="7" t="s">
         <v>100</v>
       </c>
@@ -4469,11 +4643,15 @@
       </c>
       <c r="R49" s="8"/>
       <c r="S49" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="15:19">
+      <c r="U49" t="str">
+        <f t="shared" si="1"/>
+        <v>OCU#Olimpia Club Urdinarrain</v>
+      </c>
+    </row>
+    <row r="50" spans="15:21">
       <c r="O50" s="7" t="s">
         <v>101</v>
       </c>
@@ -4482,11 +4660,15 @@
       </c>
       <c r="R50" s="8"/>
       <c r="S50" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="51" spans="15:19">
+      <c r="U50" t="str">
+        <f t="shared" si="1"/>
+        <v>SFCC#Sarmiento Futbol Club Concordia</v>
+      </c>
+    </row>
+    <row r="51" spans="15:21">
       <c r="O51" s="7" t="s">
         <v>102</v>
       </c>
@@ -4495,11 +4677,15 @@
       </c>
       <c r="R51" s="8"/>
       <c r="S51" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="52" spans="15:19">
+      <c r="U51" t="str">
+        <f t="shared" si="1"/>
+        <v>SUA#Sociedad Union Arabe (Paraná)</v>
+      </c>
+    </row>
+    <row r="52" spans="15:21">
       <c r="O52" s="7" t="s">
         <v>103</v>
       </c>
@@ -4508,11 +4694,15 @@
       </c>
       <c r="R52" s="8"/>
       <c r="S52" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="53" spans="15:19" ht="15.75" thickBot="1">
+      <c r="U52" t="str">
+        <f t="shared" si="1"/>
+        <v>VAMA#Escuela Municipal Valle Maria</v>
+      </c>
+    </row>
+    <row r="53" spans="15:21" ht="15.75" thickBot="1">
       <c r="O53" s="9" t="s">
         <v>104</v>
       </c>
@@ -4522,8 +4712,12 @@
       <c r="Q53" s="14"/>
       <c r="R53" s="10"/>
       <c r="S53" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
+      </c>
+      <c r="U53" t="str">
+        <f t="shared" si="1"/>
+        <v>VFBC#Viale Foot Ball Club</v>
       </c>
     </row>
   </sheetData>
@@ -4541,10 +4735,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A070E64C-B61B-4236-B035-7A74F8C2F6E1}">
-  <dimension ref="B1:W187"/>
+  <dimension ref="B1:W186"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="D112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D120" sqref="A120:XFD120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4566,46 +4760,48 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B2" s="11"/>
+      <c r="B2" s="11">
+        <v>30008010</v>
+      </c>
       <c r="C2" s="11" t="str">
-        <f>IF(B2="","",VLOOKUP(B2,datos,9,FALSE))</f>
-        <v/>
+        <f>IF(B2="","",VLOOKUP(B2,datos,8,FALSE))</f>
+        <v>Arroyo Barú</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1">
       <c r="B4" s="27" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K4" s="3">
-        <f>MAX(K5:K187)</f>
+        <f>MAX(K5:K186)</f>
         <v>43</v>
       </c>
     </row>
@@ -4620,25 +4816,25 @@
         <v>8</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F5" s="26">
         <v>2808</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H5" s="26">
         <v>10</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K5">
-        <f>LEN(I5:I187)</f>
+        <f>LEN(I5:I186)</f>
         <v>11</v>
       </c>
       <c r="L5" t="str">
@@ -4657,29 +4853,29 @@
         <v>8</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F6" s="26">
         <v>169</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H6" s="26">
         <v>20</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:K69" si="0">LEN(I6:I188)</f>
+        <f>LEN(I6:I187)</f>
         <v>5</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" ref="L6:L69" si="1">IF(K6=$K$4,"ACA","")</f>
+        <f t="shared" ref="L6:L69" si="0">IF(K6=$K$4,"ACA","")</f>
         <v/>
       </c>
     </row>
@@ -4694,29 +4890,29 @@
         <v>8</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F7" s="26">
         <v>5640</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H7" s="26">
         <v>30</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K7">
+        <f>LEN(I7:I188)</f>
+        <v>14</v>
+      </c>
+      <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4731,29 +4927,29 @@
         <v>8</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F8" s="26">
         <v>5604</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H8" s="26">
         <v>40</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K8">
+        <f>LEN(I8:I189)</f>
+        <v>6</v>
+      </c>
+      <c r="L8" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4768,29 +4964,29 @@
         <v>8</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F9" s="26">
         <v>5602</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H9" s="26">
         <v>50</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K9">
+        <f>LEN(I9:I190)</f>
+        <v>6</v>
+      </c>
+      <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4805,29 +5001,29 @@
         <v>8</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F10" s="26">
         <v>2804</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H10" s="26">
         <v>60</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K10">
+        <f>LEN(I10:I191)</f>
+        <v>10</v>
+      </c>
+      <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4842,29 +5038,29 @@
         <v>8</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F11" s="26">
         <v>2842</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H11" s="26">
         <v>70</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K11">
+        <f>LEN(I11:I192)</f>
+        <v>12</v>
+      </c>
+      <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4879,29 +5075,29 @@
         <v>8</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F12" s="26">
         <v>1491</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H12" s="26">
         <v>80</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K12">
+        <f>LEN(I12:I193)</f>
+        <v>13</v>
+      </c>
+      <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4916,29 +5112,29 @@
         <v>8</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F13" s="26">
         <v>227</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H13" s="26">
         <v>90</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K13">
+        <f>LEN(I13:I194)</f>
+        <v>8</v>
+      </c>
+      <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4953,27 +5149,27 @@
         <v>8</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="26">
         <v>227</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H14" s="26">
         <v>90</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14">
+        <f>LEN(I14:I195)</f>
+        <v>12</v>
+      </c>
+      <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4988,27 +5184,27 @@
         <v>8</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F15" s="26">
         <v>227</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H15" s="26">
         <v>90</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J15" s="26"/>
       <c r="K15">
+        <f>LEN(I15:I196)</f>
+        <v>11</v>
+      </c>
+      <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5023,27 +5219,27 @@
         <v>8</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F16" s="26">
         <v>227</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H16" s="26">
         <v>90</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J16" s="26"/>
       <c r="K16">
+        <f>LEN(I16:I197)</f>
+        <v>8</v>
+      </c>
+      <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L16" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5058,29 +5254,29 @@
         <v>8</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F17" s="26">
         <v>1110</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H17" s="26">
         <v>100</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K17">
+        <f>LEN(I17:I198)</f>
+        <v>6</v>
+      </c>
+      <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L17" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5095,29 +5291,29 @@
         <v>8</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F18" s="26">
         <v>353</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H18" s="26">
         <v>110</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K18">
+        <f>LEN(I18:I199)</f>
+        <v>12</v>
+      </c>
+      <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L18" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5132,29 +5328,29 @@
         <v>15</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F19" s="26">
         <v>2801</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H19" s="26">
         <v>10</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K19">
+        <f>LEN(I19:I200)</f>
+        <v>11</v>
+      </c>
+      <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L19" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5169,29 +5365,29 @@
         <v>15</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F20" s="26">
         <v>2854</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H20" s="26">
         <v>20</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K20">
+        <f>LEN(I20:I201)</f>
+        <v>18</v>
+      </c>
+      <c r="L20" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="L20" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5206,29 +5402,29 @@
         <v>15</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F21" s="26">
         <v>2809</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H21" s="26">
         <v>30</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K21">
+        <f>LEN(I21:I202)</f>
+        <v>12</v>
+      </c>
+      <c r="L21" t="str">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L21" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5243,29 +5439,29 @@
         <v>15</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F22" s="26">
         <v>5641</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H22" s="26">
         <v>40</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22">
+        <f>LEN(I22:I203)</f>
+        <v>20</v>
+      </c>
+      <c r="L22" t="str">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="L22" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5280,29 +5476,29 @@
         <v>15</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F23" s="26">
         <v>5643</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H23" s="26">
         <v>50</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K23">
+        <f>LEN(I23:I204)</f>
+        <v>13</v>
+      </c>
+      <c r="L23" t="str">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="L23" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5317,29 +5513,29 @@
         <v>15</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F24" s="26">
         <v>23</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H24" s="26">
         <v>60</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K24">
+        <f>LEN(I24:I205)</f>
+        <v>9</v>
+      </c>
+      <c r="L24" t="str">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L24" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5354,27 +5550,27 @@
         <v>15</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F25" s="26">
         <v>23</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H25" s="26">
         <v>60</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J25" s="26"/>
       <c r="K25">
+        <f>LEN(I25:I206)</f>
+        <v>14</v>
+      </c>
+      <c r="L25" t="str">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L25" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5389,27 +5585,27 @@
         <v>15</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F26" s="26">
         <v>23</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H26" s="26">
         <v>60</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J26" s="26"/>
       <c r="K26">
+        <f>LEN(I26:I207)</f>
+        <v>9</v>
+      </c>
+      <c r="L26" t="str">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L26" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5424,27 +5620,27 @@
         <v>15</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F27" s="26">
         <v>23</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H27" s="26">
         <v>60</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J27" s="26"/>
       <c r="K27">
+        <f>LEN(I27:I208)</f>
+        <v>9</v>
+      </c>
+      <c r="L27" t="str">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L27" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5459,27 +5655,27 @@
         <v>15</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F28" s="26">
         <v>23</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H28" s="26">
         <v>60</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J28" s="26"/>
       <c r="K28">
+        <f>LEN(I28:I209)</f>
+        <v>11</v>
+      </c>
+      <c r="L28" t="str">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L28" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5494,27 +5690,27 @@
         <v>15</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F29" s="26">
         <v>23</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H29" s="26">
         <v>60</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J29" s="26"/>
       <c r="K29">
+        <f>LEN(I29:I210)</f>
+        <v>15</v>
+      </c>
+      <c r="L29" t="str">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="L29" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5529,29 +5725,29 @@
         <v>15</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F30" s="26">
         <v>5644</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H30" s="26">
         <v>70</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K30">
+        <f>LEN(I30:I211)</f>
+        <v>10</v>
+      </c>
+      <c r="L30" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L30" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5566,29 +5762,29 @@
         <v>15</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F31" s="26">
         <v>2833</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H31" s="26">
         <v>80</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K31">
+        <f>LEN(I31:I212)</f>
+        <v>14</v>
+      </c>
+      <c r="L31" t="str">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L31" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5603,29 +5799,29 @@
         <v>15</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F32" s="26">
         <v>1176</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H32" s="26">
         <v>90</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K32">
+        <f>LEN(I32:I213)</f>
+        <v>10</v>
+      </c>
+      <c r="L32" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L32" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5640,29 +5836,29 @@
         <v>15</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F33" s="26">
         <v>817</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H33" s="26">
         <v>100</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J33" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K33">
+        <f>LEN(I33:I214)</f>
+        <v>12</v>
+      </c>
+      <c r="L33" t="str">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L33" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5677,29 +5873,29 @@
         <v>15</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F34" s="26">
         <v>2828</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H34" s="26">
         <v>110</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J34" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K34">
+        <f>LEN(I34:I215)</f>
+        <v>13</v>
+      </c>
+      <c r="L34" t="str">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="L34" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5714,29 +5910,29 @@
         <v>15</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F35" s="26">
         <v>1498</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H35" s="26">
         <v>120</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J35" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K35">
+        <f>LEN(I35:I216)</f>
+        <v>16</v>
+      </c>
+      <c r="L35" t="str">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="L35" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5751,29 +5947,29 @@
         <v>15</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F36" s="26">
         <v>2818</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H36" s="26">
         <v>130</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J36" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K36">
+        <f>LEN(I36:I217)</f>
+        <v>8</v>
+      </c>
+      <c r="L36" t="str">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L36" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5788,29 +5984,29 @@
         <v>15</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F37" s="26">
         <v>1414</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H37" s="26">
         <v>140</v>
       </c>
       <c r="I37" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J37" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K37">
+        <f>LEN(I37:I218)</f>
+        <v>12</v>
+      </c>
+      <c r="L37" t="str">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L37" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5825,29 +6021,29 @@
         <v>21</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F38" s="26">
         <v>1531</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H38" s="26">
         <v>10</v>
       </c>
       <c r="I38" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J38" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K38">
+        <f>LEN(I38:I219)</f>
+        <v>15</v>
+      </c>
+      <c r="L38" t="str">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="L38" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5862,29 +6058,29 @@
         <v>21</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F39" s="26">
         <v>2803</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H39" s="26">
         <v>20</v>
       </c>
       <c r="I39" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J39" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K39">
+        <f>LEN(I39:I220)</f>
+        <v>17</v>
+      </c>
+      <c r="L39" t="str">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="L39" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5899,29 +6095,29 @@
         <v>21</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F40" s="26">
         <v>2851</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H40" s="26">
         <v>30</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J40" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K40">
+        <f>LEN(I40:I221)</f>
+        <v>11</v>
+      </c>
+      <c r="L40" t="str">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L40" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5936,29 +6132,29 @@
         <v>21</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F41" s="26">
         <v>5607</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H41" s="26">
         <v>40</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="J41" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K41">
+        <f>LEN(I41:I222)</f>
+        <v>19</v>
+      </c>
+      <c r="L41" t="str">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="L41" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5973,29 +6169,29 @@
         <v>21</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F42" s="26">
         <v>2826</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H42" s="26">
         <v>50</v>
       </c>
       <c r="I42" s="26" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J42" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K42">
+        <f>LEN(I42:I223)</f>
+        <v>19</v>
+      </c>
+      <c r="L42" t="str">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="L42" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6010,29 +6206,29 @@
         <v>21</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F43" s="26">
         <v>1093</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H43" s="26">
         <v>60</v>
       </c>
       <c r="I43" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J43" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K43">
+        <f>LEN(I43:I224)</f>
+        <v>17</v>
+      </c>
+      <c r="L43" t="str">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="L43" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6047,29 +6243,29 @@
         <v>21</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F44" s="26">
         <v>5609</v>
       </c>
       <c r="G44" s="26" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H44" s="26">
         <v>70</v>
       </c>
       <c r="I44" s="26" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J44" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K44">
+        <f>LEN(I44:I225)</f>
+        <v>14</v>
+      </c>
+      <c r="L44" t="str">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L44" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6084,29 +6280,29 @@
         <v>21</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F45" s="26">
         <v>168</v>
       </c>
       <c r="G45" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H45" s="26">
         <v>80</v>
       </c>
       <c r="I45" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J45" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K45">
+        <f>LEN(I45:I226)</f>
+        <v>8</v>
+      </c>
+      <c r="L45" t="str">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L45" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6121,7 +6317,7 @@
         <v>21</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F46" s="26">
         <v>168</v>
@@ -6131,17 +6327,17 @@
         <v>80</v>
       </c>
       <c r="I46" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J46" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K46">
+        <f>LEN(I46:I227)</f>
+        <v>8</v>
+      </c>
+      <c r="L46" t="str">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L46" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6156,7 +6352,7 @@
         <v>21</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F47" s="26">
         <v>168</v>
@@ -6166,17 +6362,17 @@
         <v>80</v>
       </c>
       <c r="I47" s="26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J47" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K47">
+        <f>LEN(I47:I228)</f>
+        <v>7</v>
+      </c>
+      <c r="L47" t="str">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L47" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6191,29 +6387,29 @@
         <v>21</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F48" s="26">
         <v>2856</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H48" s="26">
         <v>90</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J48" s="26" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K48">
+        <f>LEN(I48:I229)</f>
+        <v>14</v>
+      </c>
+      <c r="L48" t="str">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L48" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6228,39 +6424,39 @@
         <v>21</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F49" s="26">
         <v>5647</v>
       </c>
       <c r="G49" s="26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H49" s="26">
         <v>100</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J49" s="26" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K49">
+        <f>LEN(I49:I230)</f>
+        <v>14</v>
+      </c>
+      <c r="L49" t="str">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L49" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="U49">
         <v>110</v>
       </c>
       <c r="V49" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="W49" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="2:23">
@@ -6274,29 +6470,29 @@
         <v>21</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F50" s="26">
         <v>2825</v>
       </c>
       <c r="G50" s="26" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H50" s="26">
         <v>110</v>
       </c>
       <c r="I50" s="26" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J50" s="26" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K50">
+        <f>LEN(I50:I231)</f>
+        <v>14</v>
+      </c>
+      <c r="L50" t="str">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L50" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6311,29 +6507,29 @@
         <v>21</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F51" s="26">
         <v>327</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H51" s="26">
         <v>120</v>
       </c>
       <c r="I51" s="26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J51" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K51">
+        <f>LEN(I51:I232)</f>
+        <v>15</v>
+      </c>
+      <c r="L51" t="str">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="L51" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6348,29 +6544,29 @@
         <v>21</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F52" s="26">
         <v>5645</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H52" s="26">
         <v>130</v>
       </c>
       <c r="I52" s="26" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J52" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K52">
+        <f>LEN(I52:I233)</f>
+        <v>16</v>
+      </c>
+      <c r="L52" t="str">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="L52" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6385,29 +6581,29 @@
         <v>21</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F53" s="26">
         <v>2837</v>
       </c>
       <c r="G53" s="26" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H53" s="26">
         <v>140</v>
       </c>
       <c r="I53" s="26" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J53" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K53">
+        <f>LEN(I53:I234)</f>
+        <v>17</v>
+      </c>
+      <c r="L53" t="str">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="L53" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6422,29 +6618,29 @@
         <v>21</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F54" s="26">
         <v>543</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H54" s="26">
         <v>150</v>
       </c>
       <c r="I54" s="26" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J54" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K54">
+        <f>LEN(I54:I235)</f>
+        <v>27</v>
+      </c>
+      <c r="L54" t="str">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="L54" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6459,7 +6655,7 @@
         <v>21</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F55" s="26">
         <v>543</v>
@@ -6469,17 +6665,17 @@
         <v>150</v>
       </c>
       <c r="I55" s="26" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J55" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K55">
+        <f>LEN(I55:I236)</f>
+        <v>17</v>
+      </c>
+      <c r="L55" t="str">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="L55" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6494,7 +6690,7 @@
         <v>21</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F56" s="26">
         <v>543</v>
@@ -6504,17 +6700,17 @@
         <v>150</v>
       </c>
       <c r="I56" s="26" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J56" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K56">
+        <f>LEN(I56:I237)</f>
+        <v>27</v>
+      </c>
+      <c r="L56" t="str">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="L56" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6529,29 +6725,29 @@
         <v>28</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F57" s="26">
         <v>125</v>
       </c>
       <c r="G57" s="26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H57" s="26">
         <v>10</v>
       </c>
       <c r="I57" s="26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J57" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K57">
+        <f>LEN(I57:I238)</f>
+        <v>7</v>
+      </c>
+      <c r="L57" t="str">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L57" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6566,29 +6762,29 @@
         <v>28</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F58" s="26">
         <v>5642</v>
       </c>
       <c r="G58" s="26" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H58" s="26">
         <v>20</v>
       </c>
       <c r="I58" s="26" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J58" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K58">
+        <f>LEN(I58:I239)</f>
+        <v>15</v>
+      </c>
+      <c r="L58" t="str">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="L58" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6603,29 +6799,29 @@
         <v>28</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F59" s="26">
         <v>5634</v>
       </c>
       <c r="G59" s="26" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H59" s="26">
         <v>30</v>
       </c>
       <c r="I59" s="26" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J59" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K59">
+        <f>LEN(I59:I240)</f>
+        <v>22</v>
+      </c>
+      <c r="L59" t="str">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="L59" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6640,29 +6836,29 @@
         <v>28</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F60" s="26">
         <v>5633</v>
       </c>
       <c r="G60" s="26" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H60" s="26">
         <v>40</v>
       </c>
       <c r="I60" s="26" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J60" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K60">
+        <f>LEN(I60:I241)</f>
+        <v>20</v>
+      </c>
+      <c r="L60" t="str">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="L60" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6677,29 +6873,29 @@
         <v>28</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F61" s="26">
         <v>5635</v>
       </c>
       <c r="G61" s="26" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H61" s="26">
         <v>50</v>
       </c>
       <c r="I61" s="26" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J61" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K61">
+        <f>LEN(I61:I242)</f>
+        <v>12</v>
+      </c>
+      <c r="L61" t="str">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L61" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6714,29 +6910,29 @@
         <v>28</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F62" s="26">
         <v>5636</v>
       </c>
       <c r="G62" s="26" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H62" s="26">
         <v>60</v>
       </c>
       <c r="I62" s="26" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J62" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K62">
+        <f>LEN(I62:I243)</f>
+        <v>19</v>
+      </c>
+      <c r="L62" t="str">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="L62" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6751,29 +6947,29 @@
         <v>28</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F63" s="26">
         <v>252</v>
       </c>
       <c r="G63" s="26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H63" s="26">
         <v>70</v>
       </c>
       <c r="I63" s="26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J63" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K63">
+        <f>LEN(I63:I244)</f>
+        <v>10</v>
+      </c>
+      <c r="L63" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L63" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6788,29 +6984,29 @@
         <v>28</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F64" s="26">
         <v>1187</v>
       </c>
       <c r="G64" s="26" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H64" s="26">
         <v>80</v>
       </c>
       <c r="I64" s="26" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J64" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K64">
+        <f>LEN(I64:I245)</f>
+        <v>18</v>
+      </c>
+      <c r="L64" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="L64" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6825,29 +7021,29 @@
         <v>28</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F65" s="26">
         <v>579</v>
       </c>
       <c r="G65" s="26" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H65" s="26">
         <v>90</v>
       </c>
       <c r="I65" s="26" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J65" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K65">
+        <f>LEN(I65:I246)</f>
+        <v>24</v>
+      </c>
+      <c r="L65" t="str">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="L65" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6862,29 +7058,29 @@
         <v>28</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F66" s="26">
         <v>2853</v>
       </c>
       <c r="G66" s="26" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H66" s="26">
         <v>100</v>
       </c>
       <c r="I66" s="26" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J66" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K66">
+        <f>LEN(I66:I247)</f>
+        <v>9</v>
+      </c>
+      <c r="L66" t="str">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L66" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6899,29 +7095,29 @@
         <v>28</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F67" s="26">
         <v>1461</v>
       </c>
       <c r="G67" s="26" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H67" s="26">
         <v>110</v>
       </c>
       <c r="I67" s="26" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="J67" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K67">
+        <f>LEN(I67:I248)</f>
+        <v>9</v>
+      </c>
+      <c r="L67" t="str">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L67" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6936,29 +7132,29 @@
         <v>28</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F68" s="26">
         <v>926</v>
       </c>
       <c r="G68" s="26" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H68" s="26">
         <v>120</v>
       </c>
       <c r="I68" s="26" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K68">
+        <f>LEN(I68:I249)</f>
+        <v>17</v>
+      </c>
+      <c r="L68" t="str">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="L68" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6973,29 +7169,29 @@
         <v>35</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F69" s="26">
         <v>1109</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H69" s="26">
         <v>10</v>
       </c>
       <c r="I69" s="26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J69" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K69">
+        <f>LEN(I69:I250)</f>
+        <v>19</v>
+      </c>
+      <c r="L69" t="str">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="L69" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7010,29 +7206,29 @@
         <v>35</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F70" s="26">
         <v>5615</v>
       </c>
       <c r="G70" s="26" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H70" s="26">
         <v>20</v>
       </c>
       <c r="I70" s="26" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J70" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K70">
-        <f t="shared" ref="K70:K133" si="2">LEN(I70:I252)</f>
+        <f>LEN(I70:I251)</f>
         <v>11</v>
       </c>
       <c r="L70" t="str">
-        <f t="shared" ref="L70:L133" si="3">IF(K70=$K$4,"ACA","")</f>
+        <f t="shared" ref="L70:L132" si="1">IF(K70=$K$4,"ACA","")</f>
         <v/>
       </c>
     </row>
@@ -7047,29 +7243,29 @@
         <v>35</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F71" s="26">
         <v>219</v>
       </c>
       <c r="G71" s="26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H71" s="26">
         <v>30</v>
       </c>
       <c r="I71" s="26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J71" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K71">
-        <f t="shared" si="2"/>
+        <f>LEN(I71:I252)</f>
         <v>7</v>
       </c>
       <c r="L71" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7084,29 +7280,29 @@
         <v>35</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F72" s="26">
         <v>2819</v>
       </c>
       <c r="G72" s="26" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H72" s="26">
         <v>40</v>
       </c>
       <c r="I72" s="26" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="J72" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K72">
-        <f t="shared" si="2"/>
+        <f>LEN(I72:I253)</f>
         <v>13</v>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7121,29 +7317,29 @@
         <v>35</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F73" s="26">
         <v>742</v>
       </c>
       <c r="G73" s="26" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H73" s="26">
         <v>50</v>
       </c>
       <c r="I73" s="26" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="J73" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K73">
-        <f t="shared" si="2"/>
+        <f>LEN(I73:I254)</f>
         <v>13</v>
       </c>
       <c r="L73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7158,29 +7354,29 @@
         <v>42</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F74" s="26">
         <v>338</v>
       </c>
       <c r="G74" s="26" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H74" s="26">
         <v>10</v>
       </c>
       <c r="I74" s="26" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J74" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K74">
-        <f t="shared" si="2"/>
+        <f>LEN(I74:I255)</f>
         <v>21</v>
       </c>
       <c r="L74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7195,29 +7391,29 @@
         <v>42</v>
       </c>
       <c r="E75" s="26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F75" s="26">
         <v>2840</v>
       </c>
       <c r="G75" s="26" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H75" s="26">
         <v>20</v>
       </c>
       <c r="I75" s="26" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J75" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K75">
-        <f t="shared" si="2"/>
+        <f>LEN(I75:I256)</f>
         <v>11</v>
       </c>
       <c r="L75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7232,29 +7428,29 @@
         <v>49</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F76" s="26">
         <v>2824</v>
       </c>
       <c r="G76" s="26" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H76" s="26">
         <v>10</v>
       </c>
       <c r="I76" s="26" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J76" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K76">
-        <f t="shared" si="2"/>
+        <f>LEN(I76:I257)</f>
         <v>14</v>
       </c>
       <c r="L76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7269,29 +7465,29 @@
         <v>49</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F77" s="26">
         <v>2844</v>
       </c>
       <c r="G77" s="26" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H77" s="26">
         <v>20</v>
       </c>
       <c r="I77" s="26" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J77" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K77">
-        <f t="shared" si="2"/>
+        <f>LEN(I77:I258)</f>
         <v>13</v>
       </c>
       <c r="L77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7306,29 +7502,29 @@
         <v>49</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F78" s="26">
         <v>548</v>
       </c>
       <c r="G78" s="26" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H78" s="26">
         <v>30</v>
       </c>
       <c r="I78" s="26" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J78" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K78">
-        <f t="shared" si="2"/>
+        <f>LEN(I78:I259)</f>
         <v>15</v>
       </c>
       <c r="L78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7343,29 +7539,29 @@
         <v>49</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F79" s="26">
         <v>83</v>
       </c>
       <c r="G79" s="26" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H79" s="26">
         <v>40</v>
       </c>
       <c r="I79" s="26" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J79" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K79">
-        <f t="shared" si="2"/>
+        <f>LEN(I79:I260)</f>
         <v>9</v>
       </c>
       <c r="L79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7380,29 +7576,29 @@
         <v>49</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F80" s="26">
         <v>2821</v>
       </c>
       <c r="G80" s="26" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H80" s="26">
         <v>50</v>
       </c>
       <c r="I80" s="26" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J80" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K80">
-        <f t="shared" si="2"/>
+        <f>LEN(I80:I261)</f>
         <v>11</v>
       </c>
       <c r="L80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7417,29 +7613,29 @@
         <v>56</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F81" s="26">
         <v>1599</v>
       </c>
       <c r="G81" s="26" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H81" s="26">
         <v>10</v>
       </c>
       <c r="I81" s="26" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J81" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K81">
-        <f t="shared" si="2"/>
+        <f>LEN(I81:I262)</f>
         <v>17</v>
       </c>
       <c r="L81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7454,29 +7650,29 @@
         <v>56</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F82" s="26">
         <v>5637</v>
       </c>
       <c r="G82" s="26" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H82" s="26">
         <v>20</v>
       </c>
       <c r="I82" s="26" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J82" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K82">
-        <f t="shared" si="2"/>
+        <f>LEN(I82:I263)</f>
         <v>14</v>
       </c>
       <c r="L82" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7491,29 +7687,29 @@
         <v>56</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F83" s="26">
         <v>1360</v>
       </c>
       <c r="G83" s="26" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H83" s="26">
         <v>30</v>
       </c>
       <c r="I83" s="26" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J83" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K83">
-        <f t="shared" si="2"/>
+        <f>LEN(I83:I264)</f>
         <v>13</v>
       </c>
       <c r="L83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7528,29 +7724,29 @@
         <v>56</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F84" s="26">
         <v>2843</v>
       </c>
       <c r="G84" s="26" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H84" s="26">
         <v>40</v>
       </c>
       <c r="I84" s="26" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J84" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K84">
-        <f t="shared" si="2"/>
+        <f>LEN(I84:I265)</f>
         <v>19</v>
       </c>
       <c r="L84" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7565,29 +7761,29 @@
         <v>56</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F85" s="26">
         <v>2831</v>
       </c>
       <c r="G85" s="26" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H85" s="26">
         <v>50</v>
       </c>
       <c r="I85" s="26" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J85" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K85">
-        <f t="shared" si="2"/>
+        <f>LEN(I85:I266)</f>
         <v>14</v>
       </c>
       <c r="L85" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7602,29 +7798,29 @@
         <v>56</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F86" s="26">
         <v>1332</v>
       </c>
       <c r="G86" s="26" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H86" s="26">
         <v>60</v>
       </c>
       <c r="I86" s="26" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J86" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K86">
-        <f t="shared" si="2"/>
+        <f>LEN(I86:I267)</f>
         <v>7</v>
       </c>
       <c r="L86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7639,29 +7835,29 @@
         <v>56</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F87" s="26">
         <v>45</v>
       </c>
       <c r="G87" s="26" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H87" s="26">
         <v>70</v>
       </c>
       <c r="I87" s="26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J87" s="26" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K87">
-        <f t="shared" si="2"/>
+        <f>LEN(I87:I268)</f>
         <v>12</v>
       </c>
       <c r="L87" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7676,29 +7872,29 @@
         <v>56</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F88" s="26">
         <v>2807</v>
       </c>
       <c r="G88" s="26" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H88" s="26">
         <v>80</v>
       </c>
       <c r="I88" s="26" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="J88" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K88">
-        <f t="shared" si="2"/>
+        <f>LEN(I88:I269)</f>
         <v>8</v>
       </c>
       <c r="L88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7713,29 +7909,29 @@
         <v>56</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F89" s="26">
         <v>447</v>
       </c>
       <c r="G89" s="26" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H89" s="26">
         <v>90</v>
       </c>
       <c r="I89" s="26" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J89" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K89">
-        <f t="shared" si="2"/>
+        <f>LEN(I89:I270)</f>
         <v>8</v>
       </c>
       <c r="L89" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7750,29 +7946,29 @@
         <v>56</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F90" s="26">
         <v>45</v>
       </c>
       <c r="G90" s="26" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H90" s="26">
         <v>100</v>
       </c>
       <c r="I90" s="26" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J90" s="26" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K90">
-        <f t="shared" si="2"/>
+        <f>LEN(I90:I271)</f>
         <v>23</v>
       </c>
       <c r="L90" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7787,29 +7983,29 @@
         <v>56</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F91" s="26">
         <v>345</v>
       </c>
       <c r="G91" s="26" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H91" s="26">
         <v>110</v>
       </c>
       <c r="I91" s="26" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J91" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K91">
-        <f t="shared" si="2"/>
+        <f>LEN(I91:I272)</f>
         <v>11</v>
       </c>
       <c r="L91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7824,29 +8020,29 @@
         <v>63</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F92" s="26">
         <v>5638</v>
       </c>
       <c r="G92" s="26" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H92" s="26">
         <v>10</v>
       </c>
       <c r="I92" s="26" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J92" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K92">
-        <f t="shared" si="2"/>
+        <f>LEN(I92:I273)</f>
         <v>15</v>
       </c>
       <c r="L92" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7861,29 +8057,29 @@
         <v>63</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F93" s="26">
         <v>2816</v>
       </c>
       <c r="G93" s="26" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H93" s="26">
         <v>20</v>
       </c>
       <c r="I93" s="26" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="J93" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K93">
-        <f t="shared" si="2"/>
+        <f>LEN(I93:I274)</f>
         <v>6</v>
       </c>
       <c r="L93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7898,29 +8094,29 @@
         <v>63</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F94" s="26">
         <v>550</v>
       </c>
       <c r="G94" s="26" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H94" s="26">
         <v>30</v>
       </c>
       <c r="I94" s="26" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J94" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K94">
-        <f t="shared" si="2"/>
+        <f>LEN(I94:I275)</f>
         <v>6</v>
       </c>
       <c r="L94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7935,29 +8131,29 @@
         <v>63</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F95" s="26">
         <v>2812</v>
       </c>
       <c r="G95" s="26" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H95" s="26">
         <v>40</v>
       </c>
       <c r="I95" s="26" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J95" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K95">
-        <f t="shared" si="2"/>
+        <f>LEN(I95:I276)</f>
         <v>7</v>
       </c>
       <c r="L95" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7972,29 +8168,29 @@
         <v>63</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F96" s="26">
         <v>5639</v>
       </c>
       <c r="G96" s="26" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H96" s="26">
         <v>50</v>
       </c>
       <c r="I96" s="26" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J96" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K96">
-        <f t="shared" si="2"/>
+        <f>LEN(I96:I277)</f>
         <v>6</v>
       </c>
       <c r="L96" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -8009,29 +8205,29 @@
         <v>63</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F97" s="26">
         <v>1129</v>
       </c>
       <c r="G97" s="26" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H97" s="26">
         <v>60</v>
       </c>
       <c r="I97" s="26" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="J97" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K97">
-        <f t="shared" si="2"/>
+        <f>LEN(I97:I278)</f>
         <v>16</v>
       </c>
       <c r="L97" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -8046,29 +8242,29 @@
         <v>70</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F98" s="26">
         <v>371</v>
       </c>
       <c r="G98" s="26" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H98" s="26">
         <v>10</v>
       </c>
       <c r="I98" s="26" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J98" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K98">
-        <f t="shared" si="2"/>
+        <f>LEN(I98:I279)</f>
         <v>6</v>
       </c>
       <c r="L98" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -8083,29 +8279,29 @@
         <v>70</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F99" s="26">
         <v>2814</v>
       </c>
       <c r="G99" s="26" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H99" s="26">
         <v>20</v>
       </c>
       <c r="I99" s="26" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J99" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K99">
-        <f t="shared" si="2"/>
+        <f>LEN(I99:I280)</f>
         <v>15</v>
       </c>
       <c r="L99" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -8120,29 +8316,29 @@
         <v>70</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F100" s="26">
         <v>5618</v>
       </c>
       <c r="G100" s="26" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H100" s="26">
         <v>30</v>
       </c>
       <c r="I100" s="26" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J100" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K100">
-        <f t="shared" si="2"/>
+        <f>LEN(I100:I281)</f>
         <v>8</v>
       </c>
       <c r="L100" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -8157,29 +8353,29 @@
         <v>70</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F101" s="26">
         <v>156</v>
       </c>
       <c r="G101" s="26" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H101" s="26">
         <v>40</v>
       </c>
       <c r="I101" s="26" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J101" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K101">
-        <f t="shared" si="2"/>
+        <f>LEN(I101:I282)</f>
         <v>6</v>
       </c>
       <c r="L101" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -8194,29 +8390,29 @@
         <v>70</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F102" s="26">
         <v>1123</v>
       </c>
       <c r="G102" s="26" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H102" s="26">
         <v>50</v>
       </c>
       <c r="I102" s="26" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J102" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K102">
-        <f t="shared" si="2"/>
+        <f>LEN(I102:I283)</f>
         <v>15</v>
       </c>
       <c r="L102" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -8231,29 +8427,29 @@
         <v>70</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F103" s="26">
         <v>835</v>
       </c>
       <c r="G103" s="26" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H103" s="26">
         <v>60</v>
       </c>
       <c r="I103" s="26" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J103" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K103">
-        <f t="shared" si="2"/>
+        <f>LEN(I103:I284)</f>
         <v>12</v>
       </c>
       <c r="L103" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -8268,29 +8464,29 @@
         <v>70</v>
       </c>
       <c r="E104" s="26" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F104" s="26">
         <v>1199</v>
       </c>
       <c r="G104" s="26" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H104" s="26">
         <v>70</v>
       </c>
       <c r="I104" s="26" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J104" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K104">
-        <f t="shared" si="2"/>
+        <f>LEN(I104:I285)</f>
         <v>11</v>
       </c>
       <c r="L104" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -8305,29 +8501,29 @@
         <v>70</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F105" s="26">
         <v>152</v>
       </c>
       <c r="G105" s="26" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H105" s="26">
         <v>80</v>
       </c>
       <c r="I105" s="26" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J105" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K105">
-        <f t="shared" si="2"/>
+        <f>LEN(I105:I286)</f>
         <v>11</v>
       </c>
       <c r="L105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -8342,29 +8538,29 @@
         <v>70</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F106" s="26">
         <v>2838</v>
       </c>
       <c r="G106" s="26" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H106" s="26">
         <v>90</v>
       </c>
       <c r="I106" s="26" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J106" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K106">
-        <f t="shared" si="2"/>
+        <f>LEN(I106:I287)</f>
         <v>11</v>
       </c>
       <c r="L106" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -8379,29 +8575,29 @@
         <v>77</v>
       </c>
       <c r="E107" s="26" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F107" s="26">
         <v>1137</v>
       </c>
       <c r="G107" s="26" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H107" s="26">
         <v>10</v>
       </c>
       <c r="I107" s="26" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J107" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K107">
-        <f t="shared" si="2"/>
+        <f>LEN(I107:I288)</f>
         <v>9</v>
       </c>
       <c r="L107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -8416,29 +8612,29 @@
         <v>77</v>
       </c>
       <c r="E108" s="26" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F108" s="26">
         <v>2839</v>
       </c>
       <c r="G108" s="26" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H108" s="26">
         <v>20</v>
       </c>
       <c r="I108" s="26" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J108" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K108">
-        <f t="shared" si="2"/>
+        <f>LEN(I108:I289)</f>
         <v>8</v>
       </c>
       <c r="L108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -8453,29 +8649,29 @@
         <v>77</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F109" s="26">
         <v>2827</v>
       </c>
       <c r="G109" s="26" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H109" s="26">
         <v>30</v>
       </c>
       <c r="I109" s="26" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J109" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K109">
-        <f t="shared" si="2"/>
+        <f>LEN(I109:I290)</f>
         <v>13</v>
       </c>
       <c r="L109" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -8490,29 +8686,29 @@
         <v>77</v>
       </c>
       <c r="E110" s="26" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F110" s="26">
         <v>5608</v>
       </c>
       <c r="G110" s="26" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H110" s="26">
         <v>40</v>
       </c>
       <c r="I110" s="26" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J110" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K110">
-        <f t="shared" si="2"/>
+        <f>LEN(I110:I291)</f>
         <v>5</v>
       </c>
       <c r="L110" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -8527,29 +8723,29 @@
         <v>77</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F111" s="26">
         <v>997</v>
       </c>
       <c r="G111" s="26" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H111" s="26">
         <v>50</v>
       </c>
       <c r="I111" s="26" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J111" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K111">
-        <f t="shared" si="2"/>
+        <f>LEN(I111:I292)</f>
         <v>9</v>
       </c>
       <c r="L111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -8564,29 +8760,29 @@
         <v>77</v>
       </c>
       <c r="E112" s="26" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F112" s="26">
         <v>519</v>
       </c>
       <c r="G112" s="26" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H112" s="26">
         <v>60</v>
       </c>
       <c r="I112" s="26" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J112" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K112">
-        <f t="shared" si="2"/>
+        <f>LEN(I112:I293)</f>
         <v>14</v>
       </c>
       <c r="L112" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -8601,29 +8797,29 @@
         <v>77</v>
       </c>
       <c r="E113" s="26" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F113" s="26">
         <v>138</v>
       </c>
       <c r="G113" s="26" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H113" s="26">
         <v>70</v>
       </c>
       <c r="I113" s="26" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J113" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K113">
-        <f t="shared" si="2"/>
+        <f>LEN(I113:I294)</f>
         <v>6</v>
       </c>
       <c r="L113" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -8638,29 +8834,29 @@
         <v>77</v>
       </c>
       <c r="E114" s="26" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F114" s="26">
         <v>2841</v>
       </c>
       <c r="G114" s="26" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H114" s="26">
         <v>80</v>
       </c>
       <c r="I114" s="26" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J114" s="26" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K114">
-        <f t="shared" si="2"/>
+        <f>LEN(I114:I295)</f>
         <v>15</v>
       </c>
       <c r="L114" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -8675,29 +8871,29 @@
         <v>84</v>
       </c>
       <c r="E115" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F115" s="26">
         <v>2806</v>
       </c>
       <c r="G115" s="26" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H115" s="26">
         <v>10</v>
       </c>
       <c r="I115" s="26" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J115" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K115">
-        <f t="shared" si="2"/>
+        <f>LEN(I115:I296)</f>
         <v>17</v>
       </c>
       <c r="L115" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -8712,29 +8908,29 @@
         <v>84</v>
       </c>
       <c r="E116" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F116" s="26">
         <v>5603</v>
       </c>
       <c r="G116" s="26" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H116" s="26">
         <v>20</v>
       </c>
       <c r="I116" s="26" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J116" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K116">
-        <f t="shared" si="2"/>
+        <f>LEN(I116:I297)</f>
         <v>16</v>
       </c>
       <c r="L116" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -8749,29 +8945,29 @@
         <v>84</v>
       </c>
       <c r="E117" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F117" s="26">
         <v>2830</v>
       </c>
       <c r="G117" s="26" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H117" s="26">
         <v>30</v>
       </c>
       <c r="I117" s="26" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J117" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K117">
-        <f t="shared" si="2"/>
+        <f>LEN(I117:I298)</f>
         <v>17</v>
       </c>
       <c r="L117" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -8786,29 +8982,29 @@
         <v>84</v>
       </c>
       <c r="E118" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F118" s="26">
         <v>5646</v>
       </c>
       <c r="G118" s="26" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H118" s="26">
         <v>40</v>
       </c>
       <c r="I118" s="26" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J118" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K118">
-        <f t="shared" si="2"/>
+        <f>LEN(I118:I299)</f>
         <v>16</v>
       </c>
       <c r="L118" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -8823,29 +9019,29 @@
         <v>84</v>
       </c>
       <c r="E119" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F119" s="26">
         <v>588</v>
       </c>
       <c r="G119" s="26" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H119" s="26">
         <v>50</v>
       </c>
       <c r="I119" s="26" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J119" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K119">
-        <f t="shared" si="2"/>
+        <f>LEN(I119:I300)</f>
         <v>7</v>
       </c>
       <c r="L119" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -8860,33 +9056,33 @@
         <v>84</v>
       </c>
       <c r="E120" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F120" s="26">
         <v>588</v>
       </c>
       <c r="G120" s="26" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H120" s="26">
         <v>50</v>
       </c>
       <c r="I120" s="26" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J120" s="26"/>
       <c r="K120">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" ref="K120:K132" si="2">LEN(I120:I302)</f>
+        <v>13</v>
       </c>
       <c r="L120" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="2:12">
       <c r="B121" s="26">
-        <v>30084050</v>
+        <v>30084060</v>
       </c>
       <c r="C121" s="26">
         <v>30</v>
@@ -8895,33 +9091,35 @@
         <v>84</v>
       </c>
       <c r="E121" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F121" s="26">
-        <v>588</v>
+        <v>16</v>
       </c>
       <c r="G121" s="26" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H121" s="26">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I121" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="J121" s="26"/>
+        <v>256</v>
+      </c>
+      <c r="J121" s="26" t="s">
+        <v>227</v>
+      </c>
       <c r="K121">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L121" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="2:12">
       <c r="B122" s="26">
-        <v>30084060</v>
+        <v>30084070</v>
       </c>
       <c r="C122" s="26">
         <v>30</v>
@@ -8930,35 +9128,35 @@
         <v>84</v>
       </c>
       <c r="E122" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F122" s="26">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="G122" s="26" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H122" s="26">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I122" s="26" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="J122" s="26" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="K122">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L122" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="2:12">
       <c r="B123" s="26">
-        <v>30084070</v>
+        <v>30084080</v>
       </c>
       <c r="C123" s="26">
         <v>30</v>
@@ -8967,35 +9165,35 @@
         <v>84</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F123" s="26">
-        <v>189</v>
+        <v>5606</v>
       </c>
       <c r="G123" s="26" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H123" s="26">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I123" s="26" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="J123" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K123">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L123" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="2:12">
       <c r="B124" s="26">
-        <v>30084080</v>
+        <v>30084090</v>
       </c>
       <c r="C124" s="26">
         <v>30</v>
@@ -9004,35 +9202,35 @@
         <v>84</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F124" s="26">
-        <v>5606</v>
+        <v>1545</v>
       </c>
       <c r="G124" s="26" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H124" s="26">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I124" s="26" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J124" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K124">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L124" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="2:12">
       <c r="B125" s="26">
-        <v>30084090</v>
+        <v>30084100</v>
       </c>
       <c r="C125" s="26">
         <v>30</v>
@@ -9041,35 +9239,35 @@
         <v>84</v>
       </c>
       <c r="E125" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F125" s="26">
-        <v>1545</v>
+        <v>566</v>
       </c>
       <c r="G125" s="26" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H125" s="26">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I125" s="26" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="J125" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K125">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="2:12">
       <c r="B126" s="26">
-        <v>30084100</v>
+        <v>30084110</v>
       </c>
       <c r="C126" s="26">
         <v>30</v>
@@ -9078,35 +9276,35 @@
         <v>84</v>
       </c>
       <c r="E126" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F126" s="26">
-        <v>566</v>
+        <v>530</v>
       </c>
       <c r="G126" s="26" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H126" s="26">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I126" s="26" t="s">
-        <v>258</v>
+        <v>337</v>
       </c>
       <c r="J126" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K126">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L126" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="2:12">
       <c r="B127" s="26">
-        <v>30084110</v>
+        <v>30084120</v>
       </c>
       <c r="C127" s="26">
         <v>30</v>
@@ -9115,35 +9313,35 @@
         <v>84</v>
       </c>
       <c r="E127" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F127" s="26">
-        <v>530</v>
+        <v>2815</v>
       </c>
       <c r="G127" s="26" t="s">
-        <v>258</v>
+        <v>337</v>
       </c>
       <c r="H127" s="26">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="I127" s="26" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="J127" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K127">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L127" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="2:12">
       <c r="B128" s="26">
-        <v>30084120</v>
+        <v>30084130</v>
       </c>
       <c r="C128" s="26">
         <v>30</v>
@@ -9152,35 +9350,35 @@
         <v>84</v>
       </c>
       <c r="E128" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F128" s="26">
-        <v>2815</v>
+        <v>5622</v>
       </c>
       <c r="G128" s="26" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="H128" s="26">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="I128" s="26" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="J128" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K128">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L128" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="2:12">
       <c r="B129" s="26">
-        <v>30084130</v>
+        <v>30084140</v>
       </c>
       <c r="C129" s="26">
         <v>30</v>
@@ -9189,35 +9387,35 @@
         <v>84</v>
       </c>
       <c r="E129" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F129" s="26">
-        <v>5622</v>
+        <v>380</v>
       </c>
       <c r="G129" s="26" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H129" s="26">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="I129" s="26" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J129" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K129">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L129" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="2:12">
       <c r="B130" s="26">
-        <v>30084140</v>
+        <v>30084150</v>
       </c>
       <c r="C130" s="26">
         <v>30</v>
@@ -9226,35 +9424,35 @@
         <v>84</v>
       </c>
       <c r="E130" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F130" s="26">
-        <v>380</v>
+        <v>16</v>
       </c>
       <c r="G130" s="26" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H130" s="26">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="I130" s="26" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="J130" s="26" t="s">
-        <v>152</v>
+        <v>227</v>
       </c>
       <c r="K130">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L130" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="2:12">
       <c r="B131" s="26">
-        <v>30084150</v>
+        <v>30084160</v>
       </c>
       <c r="C131" s="26">
         <v>30</v>
@@ -9263,35 +9461,35 @@
         <v>84</v>
       </c>
       <c r="E131" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F131" s="26">
         <v>16</v>
       </c>
       <c r="G131" s="26" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H131" s="26">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="I131" s="26" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="J131" s="26" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K131">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L131" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="2:12">
       <c r="B132" s="26">
-        <v>30084160</v>
+        <v>30084170</v>
       </c>
       <c r="C132" s="26">
         <v>30</v>
@@ -9300,35 +9498,35 @@
         <v>84</v>
       </c>
       <c r="E132" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F132" s="26">
-        <v>16</v>
+        <v>2835</v>
       </c>
       <c r="G132" s="26" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="H132" s="26">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="I132" s="26" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="J132" s="26" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="K132">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="L132" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="2:12">
       <c r="B133" s="26">
-        <v>30084170</v>
+        <v>30084180</v>
       </c>
       <c r="C133" s="26">
         <v>30</v>
@@ -9337,35 +9535,35 @@
         <v>84</v>
       </c>
       <c r="E133" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F133" s="26">
-        <v>2835</v>
+        <v>1527</v>
       </c>
       <c r="G133" s="26" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H133" s="26">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="I133" s="26" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="J133" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K133">
-        <f t="shared" si="2"/>
-        <v>33</v>
+        <f t="shared" ref="K133:K186" si="3">LEN(I133:I315)</f>
+        <v>12</v>
       </c>
       <c r="L133" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L133:L186" si="4">IF(K133=$K$4,"ACA","")</f>
         <v/>
       </c>
     </row>
     <row r="134" spans="2:12">
       <c r="B134" s="26">
-        <v>30084180</v>
+        <v>30084190</v>
       </c>
       <c r="C134" s="26">
         <v>30</v>
@@ -9374,35 +9572,35 @@
         <v>84</v>
       </c>
       <c r="E134" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F134" s="26">
-        <v>1527</v>
+        <v>2829</v>
       </c>
       <c r="G134" s="26" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H134" s="26">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="I134" s="26" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J134" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K134">
-        <f t="shared" ref="K134:K187" si="4">LEN(I134:I316)</f>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="L134" t="str">
-        <f t="shared" ref="L134:L187" si="5">IF(K134=$K$4,"ACA","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="2:12">
       <c r="B135" s="26">
-        <v>30084190</v>
+        <v>30084200</v>
       </c>
       <c r="C135" s="26">
         <v>30</v>
@@ -9411,35 +9609,35 @@
         <v>84</v>
       </c>
       <c r="E135" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F135" s="26">
-        <v>2829</v>
+        <v>16</v>
       </c>
       <c r="G135" s="26" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="H135" s="26">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="I135" s="26" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="J135" s="26" t="s">
-        <v>152</v>
+        <v>227</v>
       </c>
       <c r="K135">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L135" t="str">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="L135" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="2:12">
       <c r="B136" s="26">
-        <v>30084200</v>
+        <v>30084210</v>
       </c>
       <c r="C136" s="26">
         <v>30</v>
@@ -9448,35 +9646,35 @@
         <v>84</v>
       </c>
       <c r="E136" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F136" s="26">
         <v>16</v>
       </c>
       <c r="G136" s="26" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H136" s="26">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="I136" s="26" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="J136" s="26" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K136">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="L136" t="str">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="L136" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="2:12">
       <c r="B137" s="26">
-        <v>30084210</v>
+        <v>30084220</v>
       </c>
       <c r="C137" s="26">
         <v>30</v>
@@ -9485,35 +9683,35 @@
         <v>84</v>
       </c>
       <c r="E137" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F137" s="26">
-        <v>16</v>
+        <v>5610</v>
       </c>
       <c r="G137" s="26" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="H137" s="26">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="I137" s="26" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="J137" s="26" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="K137">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L137" t="str">
         <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="L137" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="2:12">
       <c r="B138" s="26">
-        <v>30084220</v>
+        <v>30084230</v>
       </c>
       <c r="C138" s="26">
         <v>30</v>
@@ -9522,35 +9720,35 @@
         <v>84</v>
       </c>
       <c r="E138" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F138" s="26">
-        <v>5610</v>
+        <v>611</v>
       </c>
       <c r="G138" s="26" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H138" s="26">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="I138" s="26" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J138" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K138">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L138" t="str">
         <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="L138" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="2:12">
       <c r="B139" s="26">
-        <v>30084230</v>
+        <v>30084240</v>
       </c>
       <c r="C139" s="26">
         <v>30</v>
@@ -9559,35 +9757,35 @@
         <v>84</v>
       </c>
       <c r="E139" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F139" s="26">
-        <v>611</v>
+        <v>2823</v>
       </c>
       <c r="G139" s="26" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H139" s="26">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="I139" s="26" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="J139" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K139">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L139" t="str">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="L139" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="2:12">
       <c r="B140" s="26">
-        <v>30084240</v>
+        <v>30084250</v>
       </c>
       <c r="C140" s="26">
         <v>30</v>
@@ -9596,35 +9794,35 @@
         <v>84</v>
       </c>
       <c r="E140" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F140" s="26">
-        <v>2823</v>
+        <v>1261</v>
       </c>
       <c r="G140" s="26" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H140" s="26">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="I140" s="26" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="J140" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K140">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="L140" t="str">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L140" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="2:12">
       <c r="B141" s="26">
-        <v>30084250</v>
+        <v>30084260</v>
       </c>
       <c r="C141" s="26">
         <v>30</v>
@@ -9633,35 +9831,35 @@
         <v>84</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F141" s="26">
-        <v>1261</v>
+        <v>5605</v>
       </c>
       <c r="G141" s="26" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H141" s="26">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="I141" s="26" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="J141" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K141">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="L141" t="str">
         <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="L141" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="2:12">
       <c r="B142" s="26">
-        <v>30084260</v>
+        <v>30084270</v>
       </c>
       <c r="C142" s="26">
         <v>30</v>
@@ -9670,35 +9868,35 @@
         <v>84</v>
       </c>
       <c r="E142" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F142" s="26">
-        <v>5605</v>
+        <v>323</v>
       </c>
       <c r="G142" s="26" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H142" s="26">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="I142" s="26" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="J142" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K142">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L142" t="str">
         <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="L142" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="2:12">
       <c r="B143" s="26">
-        <v>30084270</v>
+        <v>30084280</v>
       </c>
       <c r="C143" s="26">
         <v>30</v>
@@ -9707,35 +9905,35 @@
         <v>84</v>
       </c>
       <c r="E143" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F143" s="26">
-        <v>323</v>
+        <v>2847</v>
       </c>
       <c r="G143" s="26" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H143" s="26">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="I143" s="26" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J143" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K143">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="L143" t="str">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="L143" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="2:12">
       <c r="B144" s="26">
-        <v>30084280</v>
+        <v>30084290</v>
       </c>
       <c r="C144" s="26">
         <v>30</v>
@@ -9744,35 +9942,35 @@
         <v>84</v>
       </c>
       <c r="E144" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F144" s="26">
-        <v>2847</v>
+        <v>2849</v>
       </c>
       <c r="G144" s="26" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H144" s="26">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="I144" s="26" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J144" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K144">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="L144" t="str">
         <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="L144" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="2:12">
       <c r="B145" s="26">
-        <v>30084290</v>
+        <v>30084300</v>
       </c>
       <c r="C145" s="26">
         <v>30</v>
@@ -9781,72 +9979,72 @@
         <v>84</v>
       </c>
       <c r="E145" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F145" s="26">
-        <v>2849</v>
+        <v>2817</v>
       </c>
       <c r="G145" s="26" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H145" s="26">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="I145" s="26" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J145" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K145">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="L145" t="str">
         <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="L145" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="2:12">
       <c r="B146" s="26">
-        <v>30084300</v>
+        <v>30088010</v>
       </c>
       <c r="C146" s="26">
         <v>30</v>
       </c>
       <c r="D146" s="26">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E146" s="26" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="F146" s="26">
-        <v>2817</v>
+        <v>728</v>
       </c>
       <c r="G146" s="26" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H146" s="26">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="I146" s="26" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="J146" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K146">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="L146" t="str">
         <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="L146" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="2:12">
       <c r="B147" s="26">
-        <v>30088010</v>
+        <v>30088020</v>
       </c>
       <c r="C147" s="26">
         <v>30</v>
@@ -9855,72 +10053,72 @@
         <v>88</v>
       </c>
       <c r="E147" s="26" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F147" s="26">
-        <v>728</v>
+        <v>368</v>
       </c>
       <c r="G147" s="26" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H147" s="26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I147" s="26" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J147" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K147">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L147" t="str">
         <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="L147" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="2:12">
       <c r="B148" s="26">
-        <v>30088020</v>
+        <v>30091010</v>
       </c>
       <c r="C148" s="26">
         <v>30</v>
       </c>
       <c r="D148" s="26">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E148" s="26" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F148" s="26">
-        <v>368</v>
+        <v>5624</v>
       </c>
       <c r="G148" s="26" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="H148" s="26">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I148" s="26" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="J148" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K148">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="L148" t="str">
         <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="L148" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="2:12">
       <c r="B149" s="26">
-        <v>30091010</v>
+        <v>30091020</v>
       </c>
       <c r="C149" s="26">
         <v>30</v>
@@ -9929,35 +10127,35 @@
         <v>91</v>
       </c>
       <c r="E149" s="26" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F149" s="26">
-        <v>5624</v>
+        <v>2845</v>
       </c>
       <c r="G149" s="26" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H149" s="26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I149" s="26" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="J149" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K149">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="L149" t="str">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="L149" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="2:12">
       <c r="B150" s="26">
-        <v>30091020</v>
+        <v>30091030</v>
       </c>
       <c r="C150" s="26">
         <v>30</v>
@@ -9966,35 +10164,35 @@
         <v>91</v>
       </c>
       <c r="E150" s="26" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F150" s="26">
-        <v>2845</v>
+        <v>5601</v>
       </c>
       <c r="G150" s="26" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H150" s="26">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I150" s="26" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="J150" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K150">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="L150" t="str">
         <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="L150" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="2:12">
       <c r="B151" s="26">
-        <v>30091030</v>
+        <v>30091040</v>
       </c>
       <c r="C151" s="26">
         <v>30</v>
@@ -10003,35 +10201,35 @@
         <v>91</v>
       </c>
       <c r="E151" s="26" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F151" s="26">
-        <v>5601</v>
+        <v>2834</v>
       </c>
       <c r="G151" s="26" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H151" s="26">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I151" s="26" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="J151" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K151">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="L151" t="str">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="L151" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="2:12">
       <c r="B152" s="26">
-        <v>30091040</v>
+        <v>30091050</v>
       </c>
       <c r="C152" s="26">
         <v>30</v>
@@ -10040,35 +10238,35 @@
         <v>91</v>
       </c>
       <c r="E152" s="26" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F152" s="26">
-        <v>2834</v>
+        <v>887</v>
       </c>
       <c r="G152" s="26" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H152" s="26">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I152" s="26" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="J152" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K152">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="L152" t="str">
         <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="L152" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="2:12">
       <c r="B153" s="26">
-        <v>30091050</v>
+        <v>30091060</v>
       </c>
       <c r="C153" s="26">
         <v>30</v>
@@ -10077,35 +10275,35 @@
         <v>91</v>
       </c>
       <c r="E153" s="26" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F153" s="26">
-        <v>887</v>
+        <v>2811</v>
       </c>
       <c r="G153" s="26" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H153" s="26">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I153" s="26" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="J153" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K153">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="L153" t="str">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="L153" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="2:12">
       <c r="B154" s="26">
-        <v>30091060</v>
+        <v>30091070</v>
       </c>
       <c r="C154" s="26">
         <v>30</v>
@@ -10114,35 +10312,35 @@
         <v>91</v>
       </c>
       <c r="E154" s="26" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F154" s="26">
-        <v>2811</v>
+        <v>2848</v>
       </c>
       <c r="G154" s="26" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="H154" s="26">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I154" s="26" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="J154" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K154">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L154" t="str">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="L154" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="2:12">
       <c r="B155" s="26">
-        <v>30091070</v>
+        <v>30091080</v>
       </c>
       <c r="C155" s="26">
         <v>30</v>
@@ -10151,35 +10349,35 @@
         <v>91</v>
       </c>
       <c r="E155" s="26" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F155" s="26">
-        <v>2848</v>
+        <v>5625</v>
       </c>
       <c r="G155" s="26" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H155" s="26">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I155" s="26" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="J155" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K155">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L155" t="str">
         <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="L155" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="2:12">
       <c r="B156" s="26">
-        <v>30091080</v>
+        <v>30091090</v>
       </c>
       <c r="C156" s="26">
         <v>30</v>
@@ -10188,35 +10386,35 @@
         <v>91</v>
       </c>
       <c r="E156" s="26" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F156" s="26">
-        <v>5625</v>
+        <v>474</v>
       </c>
       <c r="G156" s="26" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="H156" s="26">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I156" s="26" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="J156" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K156">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L156" t="str">
         <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="L156" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="2:12">
       <c r="B157" s="26">
-        <v>30091090</v>
+        <v>30091100</v>
       </c>
       <c r="C157" s="26">
         <v>30</v>
@@ -10225,72 +10423,72 @@
         <v>91</v>
       </c>
       <c r="E157" s="26" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F157" s="26">
-        <v>474</v>
+        <v>212</v>
       </c>
       <c r="G157" s="26" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H157" s="26">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I157" s="26" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J157" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K157">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="L157" t="str">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="L157" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="2:12">
       <c r="B158" s="26">
-        <v>30091100</v>
+        <v>30098010</v>
       </c>
       <c r="C158" s="26">
         <v>30</v>
       </c>
       <c r="D158" s="26">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E158" s="26" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="F158" s="26">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="G158" s="26" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H158" s="26">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I158" s="26" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J158" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K158">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L158" t="str">
         <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="L158" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="2:12">
       <c r="B159" s="26">
-        <v>30098010</v>
+        <v>30098020</v>
       </c>
       <c r="C159" s="26">
         <v>30</v>
@@ -10299,35 +10497,35 @@
         <v>98</v>
       </c>
       <c r="E159" s="26" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F159" s="26">
-        <v>273</v>
+        <v>1028</v>
       </c>
       <c r="G159" s="26" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H159" s="26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I159" s="26" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="J159" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K159">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="L159" t="str">
         <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="L159" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="2:12">
       <c r="B160" s="26">
-        <v>30098020</v>
+        <v>30098030</v>
       </c>
       <c r="C160" s="26">
         <v>30</v>
@@ -10336,35 +10534,35 @@
         <v>98</v>
       </c>
       <c r="E160" s="26" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F160" s="26">
-        <v>1028</v>
+        <v>2802</v>
       </c>
       <c r="G160" s="26" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H160" s="26">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I160" s="26" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="J160" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K160">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L160" t="str">
         <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="L160" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="2:12">
       <c r="B161" s="26">
-        <v>30098030</v>
+        <v>30098040</v>
       </c>
       <c r="C161" s="26">
         <v>30</v>
@@ -10373,35 +10571,35 @@
         <v>98</v>
       </c>
       <c r="E161" s="26" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F161" s="26">
-        <v>2802</v>
+        <v>53</v>
       </c>
       <c r="G161" s="26" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H161" s="26">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I161" s="26" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J161" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K161">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="L161" t="str">
         <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="L161" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="2:12">
       <c r="B162" s="26">
-        <v>30098040</v>
+        <v>30098050</v>
       </c>
       <c r="C162" s="26">
         <v>30</v>
@@ -10410,35 +10608,35 @@
         <v>98</v>
       </c>
       <c r="E162" s="26" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F162" s="26">
-        <v>53</v>
+        <v>5648</v>
       </c>
       <c r="G162" s="26" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H162" s="26">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I162" s="26" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="J162" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K162">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="L162" t="str">
         <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="L162" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="2:12">
       <c r="B163" s="26">
-        <v>30098050</v>
+        <v>30098060</v>
       </c>
       <c r="C163" s="26">
         <v>30</v>
@@ -10447,35 +10645,35 @@
         <v>98</v>
       </c>
       <c r="E163" s="26" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F163" s="26">
-        <v>5648</v>
+        <v>1319</v>
       </c>
       <c r="G163" s="26" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H163" s="26">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I163" s="26" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J163" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K163">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="L163" t="str">
         <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="L163" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="2:12">
       <c r="B164" s="26">
-        <v>30098060</v>
+        <v>30098070</v>
       </c>
       <c r="C164" s="26">
         <v>30</v>
@@ -10484,35 +10682,35 @@
         <v>98</v>
       </c>
       <c r="E164" s="26" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F164" s="26">
-        <v>1319</v>
+        <v>2805</v>
       </c>
       <c r="G164" s="26" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H164" s="26">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I164" s="26" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="J164" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K164">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L164" t="str">
         <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="L164" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="2:12">
       <c r="B165" s="26">
-        <v>30098070</v>
+        <v>30098080</v>
       </c>
       <c r="C165" s="26">
         <v>30</v>
@@ -10521,35 +10719,35 @@
         <v>98</v>
       </c>
       <c r="E165" s="26" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F165" s="26">
-        <v>2805</v>
+        <v>2832</v>
       </c>
       <c r="G165" s="26" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H165" s="26">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I165" s="26" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="J165" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K165">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="L165" t="str">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="L165" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="2:12">
       <c r="B166" s="26">
-        <v>30098080</v>
+        <v>30098090</v>
       </c>
       <c r="C166" s="26">
         <v>30</v>
@@ -10558,35 +10756,35 @@
         <v>98</v>
       </c>
       <c r="E166" s="26" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F166" s="26">
-        <v>2832</v>
+        <v>2810</v>
       </c>
       <c r="G166" s="26" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H166" s="26">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I166" s="26" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="J166" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K166">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L166" t="str">
         <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="L166" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="2:12">
       <c r="B167" s="26">
-        <v>30098090</v>
+        <v>30098100</v>
       </c>
       <c r="C167" s="26">
         <v>30</v>
@@ -10595,35 +10793,35 @@
         <v>98</v>
       </c>
       <c r="E167" s="26" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F167" s="26">
-        <v>2810</v>
+        <v>1291</v>
       </c>
       <c r="G167" s="26" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H167" s="26">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I167" s="26" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="J167" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K167">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="L167" t="str">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="L167" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="2:12">
       <c r="B168" s="26">
-        <v>30098100</v>
+        <v>30098110</v>
       </c>
       <c r="C168" s="26">
         <v>30</v>
@@ -10632,35 +10830,35 @@
         <v>98</v>
       </c>
       <c r="E168" s="26" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F168" s="26">
-        <v>1291</v>
+        <v>2820</v>
       </c>
       <c r="G168" s="26" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H168" s="26">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I168" s="26" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="J168" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K168">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L168" t="str">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="L168" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="2:12">
       <c r="B169" s="26">
-        <v>30098110</v>
+        <v>30098120</v>
       </c>
       <c r="C169" s="26">
         <v>30</v>
@@ -10669,35 +10867,35 @@
         <v>98</v>
       </c>
       <c r="E169" s="26" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F169" s="26">
-        <v>2820</v>
+        <v>1210</v>
       </c>
       <c r="G169" s="26" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H169" s="26">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="I169" s="26" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="J169" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K169">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L169" t="str">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="L169" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="2:12">
       <c r="B170" s="26">
-        <v>30098120</v>
+        <v>30098130</v>
       </c>
       <c r="C170" s="26">
         <v>30</v>
@@ -10706,35 +10904,35 @@
         <v>98</v>
       </c>
       <c r="E170" s="26" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F170" s="26">
-        <v>1210</v>
+        <v>1058</v>
       </c>
       <c r="G170" s="26" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H170" s="26">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="I170" s="26" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="J170" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K170">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="L170" t="str">
         <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="L170" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="2:12">
       <c r="B171" s="26">
-        <v>30098130</v>
+        <v>30098140</v>
       </c>
       <c r="C171" s="26">
         <v>30</v>
@@ -10743,35 +10941,35 @@
         <v>98</v>
       </c>
       <c r="E171" s="26" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F171" s="26">
-        <v>1058</v>
+        <v>1190</v>
       </c>
       <c r="G171" s="26" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H171" s="26">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="I171" s="26" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="J171" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K171">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="L171" t="str">
         <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="L171" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="2:12">
       <c r="B172" s="26">
-        <v>30098140</v>
+        <v>30098150</v>
       </c>
       <c r="C172" s="26">
         <v>30</v>
@@ -10780,72 +10978,72 @@
         <v>98</v>
       </c>
       <c r="E172" s="26" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F172" s="26">
-        <v>1190</v>
+        <v>1426</v>
       </c>
       <c r="G172" s="26" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H172" s="26">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="I172" s="26" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="J172" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K172">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="L172" t="str">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="L172" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>ACA</v>
       </c>
     </row>
     <row r="173" spans="2:12">
       <c r="B173" s="26">
-        <v>30098150</v>
+        <v>30105010</v>
       </c>
       <c r="C173" s="26">
         <v>30</v>
       </c>
       <c r="D173" s="26">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E173" s="26" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="F173" s="26">
-        <v>1426</v>
+        <v>2836</v>
       </c>
       <c r="G173" s="26" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H173" s="26">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="I173" s="26" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="J173" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K173">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="L173" t="str">
         <f t="shared" si="4"/>
-        <v>43</v>
-      </c>
-      <c r="L173" t="str">
-        <f t="shared" si="5"/>
-        <v>ACA</v>
+        <v/>
       </c>
     </row>
     <row r="174" spans="2:12">
       <c r="B174" s="26">
-        <v>30105010</v>
+        <v>30105020</v>
       </c>
       <c r="C174" s="26">
         <v>30</v>
@@ -10854,35 +11052,35 @@
         <v>105</v>
       </c>
       <c r="E174" s="26" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F174" s="26">
-        <v>2836</v>
+        <v>5650</v>
       </c>
       <c r="G174" s="26" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H174" s="26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I174" s="26" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="J174" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K174">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L174" t="str">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="L174" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="2:12">
       <c r="B175" s="26">
-        <v>30105020</v>
+        <v>30105030</v>
       </c>
       <c r="C175" s="26">
         <v>30</v>
@@ -10891,35 +11089,35 @@
         <v>105</v>
       </c>
       <c r="E175" s="26" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F175" s="26">
-        <v>5650</v>
+        <v>5649</v>
       </c>
       <c r="G175" s="26" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H175" s="26">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I175" s="26" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="J175" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K175">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="L175" t="str">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="L175" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="2:12">
       <c r="B176" s="26">
-        <v>30105030</v>
+        <v>30105040</v>
       </c>
       <c r="C176" s="26">
         <v>30</v>
@@ -10928,35 +11126,35 @@
         <v>105</v>
       </c>
       <c r="E176" s="26" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F176" s="26">
-        <v>5649</v>
+        <v>2850</v>
       </c>
       <c r="G176" s="26" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H176" s="26">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I176" s="26" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="J176" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K176">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L176" t="str">
         <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="L176" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="2:12">
       <c r="B177" s="26">
-        <v>30105040</v>
+        <v>30105050</v>
       </c>
       <c r="C177" s="26">
         <v>30</v>
@@ -10965,35 +11163,35 @@
         <v>105</v>
       </c>
       <c r="E177" s="26" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F177" s="26">
-        <v>2850</v>
+        <v>5629</v>
       </c>
       <c r="G177" s="26" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H177" s="26">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I177" s="26" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="J177" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K177">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="L177" t="str">
         <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="L177" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="2:12">
       <c r="B178" s="26">
-        <v>30105050</v>
+        <v>30105060</v>
       </c>
       <c r="C178" s="26">
         <v>30</v>
@@ -11002,72 +11200,72 @@
         <v>105</v>
       </c>
       <c r="E178" s="26" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F178" s="26">
-        <v>5629</v>
+        <v>114</v>
       </c>
       <c r="G178" s="26" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H178" s="26">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I178" s="26" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J178" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K178">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L178" t="str">
         <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="L178" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="2:12">
       <c r="B179" s="26">
-        <v>30105060</v>
+        <v>30113010</v>
       </c>
       <c r="C179" s="26">
         <v>30</v>
       </c>
       <c r="D179" s="26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E179" s="26" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="F179" s="26">
-        <v>114</v>
+        <v>2846</v>
       </c>
       <c r="G179" s="26" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="H179" s="26">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="I179" s="26" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="J179" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K179">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="L179" t="str">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="L179" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="2:12">
       <c r="B180" s="26">
-        <v>30113010</v>
+        <v>30113020</v>
       </c>
       <c r="C180" s="26">
         <v>30</v>
@@ -11076,35 +11274,35 @@
         <v>113</v>
       </c>
       <c r="E180" s="26" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F180" s="26">
-        <v>2846</v>
+        <v>2822</v>
       </c>
       <c r="G180" s="26" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H180" s="26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I180" s="26" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="J180" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K180">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="L180" t="str">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="L180" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="2:12">
       <c r="B181" s="26">
-        <v>30113020</v>
+        <v>30113030</v>
       </c>
       <c r="C181" s="26">
         <v>30</v>
@@ -11113,35 +11311,35 @@
         <v>113</v>
       </c>
       <c r="E181" s="26" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F181" s="26">
-        <v>2822</v>
+        <v>1568</v>
       </c>
       <c r="G181" s="26" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H181" s="26">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I181" s="26" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J181" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K181">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="L181" t="str">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="L181" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="2:12">
       <c r="B182" s="26">
-        <v>30113030</v>
+        <v>30113040</v>
       </c>
       <c r="C182" s="26">
         <v>30</v>
@@ -11150,35 +11348,35 @@
         <v>113</v>
       </c>
       <c r="E182" s="26" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F182" s="26">
-        <v>1568</v>
+        <v>5630</v>
       </c>
       <c r="G182" s="26" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H182" s="26">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I182" s="26" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="J182" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K182">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="L182" t="str">
         <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="L182" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="2:12">
       <c r="B183" s="26">
-        <v>30113040</v>
+        <v>30113050</v>
       </c>
       <c r="C183" s="26">
         <v>30</v>
@@ -11187,35 +11385,35 @@
         <v>113</v>
       </c>
       <c r="E183" s="26" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F183" s="26">
-        <v>5630</v>
+        <v>5632</v>
       </c>
       <c r="G183" s="26" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H183" s="26">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I183" s="26" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="J183" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K183">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="L183" t="str">
         <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="L183" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="2:12">
       <c r="B184" s="26">
-        <v>30113050</v>
+        <v>30113060</v>
       </c>
       <c r="C184" s="26">
         <v>30</v>
@@ -11224,35 +11422,35 @@
         <v>113</v>
       </c>
       <c r="E184" s="26" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F184" s="26">
-        <v>5632</v>
+        <v>727</v>
       </c>
       <c r="G184" s="26" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H184" s="26">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I184" s="26" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="J184" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K184">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L184" t="str">
         <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="L184" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="2:12">
       <c r="B185" s="26">
-        <v>30113060</v>
+        <v>30113070</v>
       </c>
       <c r="C185" s="26">
         <v>30</v>
@@ -11261,35 +11459,35 @@
         <v>113</v>
       </c>
       <c r="E185" s="26" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F185" s="26">
-        <v>727</v>
+        <v>1033</v>
       </c>
       <c r="G185" s="26" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H185" s="26">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I185" s="26" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="J185" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K185">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="L185" t="str">
         <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="L185" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="2:12">
       <c r="B186" s="26">
-        <v>30113070</v>
+        <v>30113080</v>
       </c>
       <c r="C186" s="26">
         <v>30</v>
@@ -11298,66 +11496,29 @@
         <v>113</v>
       </c>
       <c r="E186" s="26" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F186" s="26">
-        <v>1033</v>
+        <v>105</v>
       </c>
       <c r="G186" s="26" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H186" s="26">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I186" s="26" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="J186" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K186">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="L186" t="str">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="L186" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="2:12">
-      <c r="B187" s="26">
-        <v>30113080</v>
-      </c>
-      <c r="C187" s="26">
-        <v>30</v>
-      </c>
-      <c r="D187" s="26">
-        <v>113</v>
-      </c>
-      <c r="E187" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="F187" s="26">
-        <v>105</v>
-      </c>
-      <c r="G187" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="H187" s="26">
-        <v>80</v>
-      </c>
-      <c r="I187" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="J187" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="K187">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="L187" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
